--- a/output/kpi_original.xlsx
+++ b/output/kpi_original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>The study was for the monotherapy treatment of major depressive disorder and did not achieve statistical significance on the primary endpoint (change from baseline in the 17-item Hamilton Depression Rating Scale total score at Day 15).</t>
+          <t>The study did not achieve statistical significance on the primary endpoint of change from baseline in the 17-item Hamilton Depression Rating Scale total score at Day 15, or on any secondary endpoints.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Did not meet any secondary endpoints.</t>
+          <t>Did not meet any secondary endpoints</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Efficacy and safety</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0001689548-22-000038</t>
+          <t>0001689548-22-000111</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>In April 2022, the Investigational New Drug (IND) application for the study of PRAX-222 was placed on clinical hold by the FDA. The company had not received the full details on the reasons for the hold at the time of the report.</t>
+          <t>In April 2022, the Investigational New Drug application for the study of PRAX-222 was placed on clinical hold by the FDA. The company later submitted additional documentation from a toxicology study to address the hold.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>clinical hold</t>
+          <t>Clinical Hold</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Investigational New Drug application</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Essential3 (Study 1 and Study 2)</t>
+          <t>Essential3 clinical program (Study 1 and Study 2)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>In February 2025, a pre-planned interim analysis of Study 1 resulted in the IDMC recommending the study be stopped for futility. The IDMC noted that underlying assumptions of the statistical model might have influenced this outcome. Given the advanced enrollment in both studies and the IDMC's advice, the company decided to continue both studies to completion. A decision on an NDA submission will be made after the final results are analyzed.</t>
+          <t>Based on a pre-planned interim analysis, the IDMC recommended that Study 1 be stopped for futility, as it was unlikely to meet the primary efficacy endpoint. The company has decided to continue both Study 1 and Study 2 to completion.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>NDA</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0001689548-24-000101</t>
+          <t>0001689548-25-000058</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>Epilepsy</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Photo-Paroxysmal Response study</t>
+          <t>Photo-Paroxysmal Response (PPR) study</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Announced positive results from the Photo-Paroxysmal Response (PPR) study in the first quarter of 2024.</t>
+          <t>Announced positive results from the PPR study, which is part of the ENERGY program.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>The RADIANT study is an open-label eight-week study that is part of the ENERGY program.</t>
+          <t>The RADIANT study is an open label eight-week study in patients with focal onset seizures or generalized epilepsy and is part of the ENERGY program.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>The POWER 1 study is a double-blind, placebo-controlled, 12-week study in focal onset seizures.</t>
+          <t>The POWER 1 study is a 12-week study in focal onset seizures and is part of the ENERGY program.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>double-blind, placebo-controlled, 12-week</t>
+          <t>double-blind, placebo-controlled</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>placebo</t>
+          <t>Placebo</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>epilepsy</t>
+          <t>Epilepsy</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1330,12 +1330,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>2025H2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>The company plans to begin enrollment in the POWER 2 study, a third efficacy study, in the second half of 2025.</t>
+          <t>The POWER 2 study is the third efficacy study in the ENERGY program, with enrollment planned to begin in the second half of 2025.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0001689548-24-000101</t>
+          <t>0001689548-25-000058</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EMBOLD (first cohort)</t>
+          <t>EMBOLD study (first cohort)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EMBOLD (second cohort)</t>
+          <t>EMBOLD study (second cohort)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>developmental and epileptic encephalopathies</t>
+          <t>developmental and epileptic encephalopathies (DEE)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EMERALD</t>
+          <t>EMERALD study</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>The company plans to initiate the EMERALD study in a broader developmental and epileptic encephalopathies (DEE) patient population.</t>
+          <t>Plan to initiate the EMERALD study in a broader developmental and epileptic encephalopathies (DEE) patient population in mid-2025.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0001689548-24-000101</t>
+          <t>0001689548-25-000058</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EMBRAVE (Part 1)</t>
+          <t>EMBRAVE study (second cohort)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1813,17 +1813,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Announced</t>
+          <t>Expected</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2023Q4</t>
+          <t>2026H1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Results from Part 1 of the EMBRAVE study were shared in the fourth quarter of 2023.</t>
+          <t>Currently enrolling the second cohort of the EMBRAVE study in Brazil, with topline results expected in the first half of 2026. Results from Part 1 were shared in the fourth quarter of 2023.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1888,132 +1888,10 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Topline</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Praxis Precision Medicines Inc</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0001689548-25-000058</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>elsunersen</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Pivotal Phase</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>EMBRAVE (second cohort)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2026H1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>The second cohort of the EMBRAVE study is currently enrolling in Brazil. The company is also completing multiple global regulatory interactions to further expand the pivotal phase of the program.</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>Topline</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
         <is>
           <t>Enrolling</t>
         </is>

--- a/output/kpi_original.xlsx
+++ b/output/kpi_original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,27 +563,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0001689548-22-000111</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRAX-114</t>
+          <t>vornatrigine</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>major depressive disorder</t>
+          <t>ENERGY Program</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Phase 2/3</t>
+          <t>Phase 2a</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Aria Study</t>
+          <t>Photo-Paroxysmal Response study</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -598,17 +598,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2024Q1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>The study did not achieve statistical significance on the primary endpoint of change from baseline in the 17-item Hamilton Depression Rating Scale total score at Day 15, or on any secondary endpoints.</t>
+          <t>The ENERGY program includes five studies to generate patient eligibility, efficacy, safety and pharmacokinetics (PK) data. The studies are EMPOWER, RADIANT, POWER 1, POWER 2 and POWER 3.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Not Met</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Did not meet any secondary endpoints</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Efficacy and safety</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -685,17 +685,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0001689548-22-000111</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRAX-222</t>
+          <t>vornatrigine</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>ENERGY Program</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>EMPOWER study</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>In April 2022, the Investigational New Drug application for the study of PRAX-222 was placed on clinical hold by the FDA. The company later submitted additional documentation from a toxicology study to address the hold.</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Clinical Hold</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>observational</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Ongoing</t>
         </is>
       </c>
     </row>
@@ -807,27 +807,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ulixacaltamide</t>
+          <t>vornatrigine</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>essential tremor</t>
+          <t>focal onset seizures or generalized epilepsy</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Essential3 clinical program (Study 1 and Study 2)</t>
+          <t>RADIANT study</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -837,22 +837,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Expected</t>
+          <t>Announced</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025Q3</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Based on a pre-planned interim analysis, the IDMC recommended that Study 1 be stopped for futility, as it was unlikely to meet the primary efficacy endpoint. The company has decided to continue both Study 1 and Study 2 to completion.</t>
+          <t>The RADIANT study is the first efficacy study in the ENERGY program.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Futility</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>open label</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>NDA</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>vornatrigine</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Epilepsy</t>
+          <t>focal onset seizures</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Photo-Paroxysmal Response (PPR) study</t>
+          <t>POWER 1 study</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -959,22 +959,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Announced</t>
+          <t>Expected</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024Q1</t>
+          <t>2025Q4</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Announced positive results from the PPR study, which is part of the ENERGY program.</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -994,17 +994,17 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>double-blind, placebo-controlled, 12-week</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>electrophysiology markers</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>placebo</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Enrolling</t>
         </is>
       </c>
     </row>
@@ -1051,17 +1051,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>vornatrigine</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>focal onset seizures or generalized epilepsy</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RADIANT</t>
+          <t>POWER 2 study</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>mid-year 2025</t>
+          <t>2026H2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>The RADIANT study is an open label eight-week study in patients with focal onset seizures or generalized epilepsy and is part of the ENERGY program.</t>
+          <t>POWER 2 is the third efficacy study in the ENERGY program.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>open label</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Topline</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Enrolling</t>
+          <t>Planned</t>
         </is>
       </c>
     </row>
@@ -1173,12 +1173,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>vornatrigine</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>POWER 1</t>
+          <t>POWER 3 study</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1203,17 +1203,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Expected</t>
+          <t>Planned</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025H2</t>
+          <t>2026H1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>The POWER 1 study is a 12-week study in focal onset seizures and is part of the ENERGY program.</t>
+          <t>This trial will assess vornatrigine as a single-agent treatment.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>double-blind, placebo-controlled</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Placebo</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Topline</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Planned</t>
         </is>
       </c>
     </row>
@@ -1295,17 +1295,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>vormatrigine</t>
+          <t>relutrigine</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Epilepsy</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>POWER 2</t>
+          <t>EMBOLD study (first cohort)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1325,22 +1325,22 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Announced</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025H2</t>
+          <t>2024Q3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>The POWER 2 study is the third efficacy study in the ENERGY program, with enrollment planned to begin in the second half of 2025.</t>
+          <t>Updated data from the study's open-label extension through 11 months was disclosed in May 2025.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>open-label extension</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1400,12 +1400,12 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Topline</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Completed</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EMBOLD study (first cohort)</t>
+          <t>EMBOLD study (second cohort)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1447,22 +1447,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Announced</t>
+          <t>Expected</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024Q3</t>
+          <t>2026H1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Announced positive topline results from the first cohort of the EMBOLD study.</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Enrolling</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>seizures associated with SCN2A and SCN8A developmental and epileptic encephalopathies</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EMBOLD study (second cohort)</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1569,17 +1569,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Expected</t>
+          <t>Announced</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026H1</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Enrollment of the second cohort has been initiated, with topline results expected no later than the first half of 2026.</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Breakthrough Therapy designation granted</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>U.S.</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Breakthrough Therapy</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Topline</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Enrolling</t>
+          <t>not specified</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>developmental and epileptic encephalopathies (DEE)</t>
+          <t>developmental and epileptic encephalopathies</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1691,17 +1691,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Expected</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>mid-2025</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Plan to initiate the EMERALD study in a broader developmental and epileptic encephalopathies (DEE) patient population in mid-2025.</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Planned</t>
+          <t>Enrolling</t>
         </is>
       </c>
     </row>
@@ -1783,117 +1783,2435 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0001689548-25-000058</t>
+          <t>0001689548-25-000092</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>ulixacaltamide</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Essential 3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Study 1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-early-fall</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>The company is making adjustments to the analysis of the Essential3 program based upon review of blinded data. The decision about whether the data supports the submission of an NDA will be made after analyzing the final results for Study 1 and Study 2.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NDA</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Interim</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines Inc</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0001689548-25-000092</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>elsunersen</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>EMBRAVE study (Part 1)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Announced</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2023Q4</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines Inc</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0001689548-25-000092</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>elsunersen</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>EMBRAVE study (second cohort)</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Expected</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>2026H1</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Currently enrolling the second cohort of the EMBRAVE study in Brazil, with topline results expected in the first half of 2026. Results from Part 1 were shared in the fourth quarter of 2023.</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Brazil</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t>Topline</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>Enrolling</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Praxis Precision Medicines Inc</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0001689548-25-000092</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>elsunersen</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SCN2A gain-of-function DEE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>EMBRAVE 3</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>registrational</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mind Medicine (MindMed) Inc</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0000950170-24-055681</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MM120</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GAD</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Phase 2b</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Announced</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>The company plans to hold an End-of-Phase 2 meeting with the FDA in the second quarter of 2024 and expect to initiate Phase 3 clinical trials in the second half of 2024.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Breakthrough designation granted</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Met its key secondary endpoint</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Breakthrough Therapy</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>12-week topline data demonstrated clinically and statistically significant durability of activity observed through Week 12.</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mind Medicine (MindMed) Inc</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0000950170-24-055681</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MM402</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>autism spectrum disorder</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>healthy volunteers</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2024Q2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>This is an investigator-initiated trial (IIT) conducted by University Hospital Basel (UHB) to compare the tolerability, pharmacokinetics and acute subjective, physiological and endocrine effects of R(-)-MDMA, S(+)-MDMA and R/S-MDMA.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>investigator-initiated</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PTC Therapeutics Inc</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0001070081-23-000050</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sepiapterin</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PKU</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2023Q4</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Following the placebo-controlled study, patients were eligible to enroll in a long-term open-label study, which is still ongoing and will evaluate long-term safety, durability and Phe tolerance.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>no serious adverse events</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>pre-NDA meeting scheduled</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>placebo-controlled</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>U.S.</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>NDA</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PTC Therapeutics Inc</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0001070081-23-000050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vatiquinone</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Friedreich ataxia</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Announced</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>The company has been granted a Type C meeting with the FDA to discuss the potential for an NDA submission.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Not Met</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>vatiquinone was well tolerated</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Type C meeting granted</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Demonstrated significant benefit on key disease subscales and secondary endpoints.</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>registration-directed</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>U.S.</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>NDA</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>vatiquinone treatment did demonstrate significant benefit on key disease subscales and secondary endpoints. In the population of subjects that completed the study protocol, significance was reached in the mFARS endpoint and several secondary endpoints.</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Topline</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PTC Therapeutics Inc</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0001070081-23-000050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vatiquinone</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>mitochondrial disease associated seizures</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Phase 2/3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Announced</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>The company has decided to deprioritize the program for vatiquinone in children with mitochondrial disease associated seizures given the results of the Phase 2/3 study.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Not Met</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>placebo-controlled</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Placebo</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PTC Therapeutics Inc</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0001070081-23-000050</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>utreloxastat</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>amyotrophic lateral sclerosis</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Phase 2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>A Phase 1 trial in healthy volunteers to evaluate the safety and pharmacology of utreloxastat was completed in the third quarter of 2021. Utreloxastat was found to be well-tolerated while demonstrating predictable pharmacology.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>no reported serious adverse events</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Enrolling</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0000059478-24-000245</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tirzepatide</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Heart failure with preserved ejection fraction</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Announced</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Announced in 2024 that Phase 3 trial met all primary and key secondary endpoints.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Met all key secondary endpoints</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0000059478-24-000245</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Tirzepatide</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Metabolic dysfunction-associated steatohepatitis</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Phase 2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Announced</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Announced in 2024 that Phase 2 trial met its primary endpoint.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0000059478-24-000245</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tirzepatide</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Obstructive sleep apnea (OSA)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Announced</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Submitted in the U.S. and the EU in 2024. Granted U.S. Food and Drug Administration (FDA) Fast Track designation. Granted FDA Breakthrough Therapy designation in 2024. Previously, in 2024, it was announced that trials met all primary and key secondary endpoints.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Met all key secondary endpoints</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>U.S., EU</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Fast Track, Breakthrough Therapy</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0000059478-24-000245</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Insulin Efsitora Alfa</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Type 1 and type 2 diabetes</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Announced</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Announced in 2024 that five Phase 3 trials met primary endpoints.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0000059478-24-000245</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Lebrikizumab</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>AR (perennial allergens)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Phase 3 trial initiated in 2024.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0000059478-24-000245</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Lebrikizumab</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CRSwNP</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Phase 3 trial initiated in 2024.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>_BOD_</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0000059478-24-000245</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mirikizumab</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Crohn's Disease</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Submitted in the U.S., the EU, and Japan in 2024. Phase 3 trials are ongoing.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>U.S., EU, Japan</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0000059478-24-000245</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Donanemab</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Early Alzheimer's disease</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Announced</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Approved in the U.S. and Japan in 2024. Submitted in the EU in 2023. Announced in 2024 that a Phase 3 trial met the primary endpoint. Phase 3 trials are ongoing.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>U.S., Japan, EU</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0000059478-24-000245</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DC-806</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Psoriasis</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Phase 2</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Announced</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>In 2024, discontinued Phase 2 development of this molecule in favor of another molecule in development.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Terminated</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0000059478-24-000245</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Peresolimab</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Rheumatoid arthritis</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Phase 2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Announced</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>In 2024, Phase 2 trial was discontinued due to overall benefit/risk profile.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Terminated</t>
         </is>
       </c>
     </row>
